--- a/Excel/specR_ipR_correlation.xlsx
+++ b/Excel/specR_ipR_correlation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D4A78-5161-ED46-B242-694689BE86CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E1D09-6AD3-B74D-9524-3F320E107E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{0C1103F4-1EC2-EA46-AB3C-8B88371105FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{0C1103F4-1EC2-EA46-AB3C-8B88371105FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SIMOD" sheetId="1" r:id="rId1"/>
+    <sheet name="Big East" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Graph</t>
   </si>
@@ -38,13 +39,19 @@
   <si>
     <t>Correlation</t>
   </si>
+  <si>
+    <t>matchR</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,7 +93,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,122 +408,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C753317-2D9D-CD46-886A-EA0DD921AE10}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <f>1-(0*1)/(15*720)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="D3" s="2">
+        <f>1-(2*3)/(15*720)</f>
+        <v>0.99944444444444447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.7298</v>
+      </c>
+      <c r="D4" s="2">
+        <f>1-(10*32)/(15*720)</f>
+        <v>0.97037037037037033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="2">
+        <f>1-(8*10)/(15*720)</f>
+        <v>0.99259259259259258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.62980000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62980000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <f>1-(8*6)/(15*720)</f>
+        <v>0.99555555555555553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="2">
+        <f>1-(11*6)/(15*720)</f>
+        <v>0.99388888888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>1-(15*720)/(15*720)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>1-(15*720)/(15*720)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>CORREL(B2:B9,D2:D9)</f>
+        <v>0.78500309967938009</v>
+      </c>
+      <c r="C12">
+        <f>CORREL(C2:C9,D2:D9)</f>
+        <v>0.83533534479619309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03462CD3-AD7C-BC46-AC78-8D8CBAC45D73}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="D2">
+        <f>1-(2*1)/(28*3360000)</f>
+        <v>0.9999999787414966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">1-(2*3)/(28*3360000)</f>
+        <v>0.99999993622448979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="D4">
+        <f>1-(8*1)/(28*3360000)</f>
+        <v>0.99999991496598639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="D5">
+        <f>1-(4*1)/(28*3360000)</f>
+        <v>0.9999999574829932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="D6">
+        <f>1-(4*1)/(28*3360000)</f>
+        <v>0.9999999574829932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <f>1-(2*1)/(28*3360000)</f>
+        <v>0.9999999787414966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.99870000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.62980000000000003</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>CORREL(B2:B9,C2:C9)</f>
-        <v>0.91645149987801189</v>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f>8*7*6*5000*2*1</f>
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>(8*8-8)/2</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/specR_ipR_correlation.xlsx
+++ b/Excel/specR_ipR_correlation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E1D09-6AD3-B74D-9524-3F320E107E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA49A897-532F-9143-AF04-7575F12022F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{0C1103F4-1EC2-EA46-AB3C-8B88371105FB}"/>
+    <workbookView xWindow="12340" yWindow="460" windowWidth="26060" windowHeight="19540" xr2:uid="{0C1103F4-1EC2-EA46-AB3C-8B88371105FB}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMOD" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,10 +91,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C753317-2D9D-CD46-886A-EA0DD921AE10}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +454,6 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>1-(0*1)/(15*720)</f>
         <v>1</v>
       </c>
     </row>
@@ -459,8 +468,7 @@
         <v>0.93820000000000003</v>
       </c>
       <c r="D3" s="2">
-        <f>1-(2*3)/(15*720)</f>
-        <v>0.99944444444444447</v>
+        <v>0.99944</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -468,14 +476,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.77669999999999995</v>
+        <f>0.8202</f>
+        <v>0.82020000000000004</v>
       </c>
       <c r="C4" s="2">
-        <v>0.7298</v>
+        <f>0.8048</f>
+        <v>0.80479999999999996</v>
       </c>
       <c r="D4" s="2">
-        <f>1-(10*32)/(15*720)</f>
-        <v>0.97037037037037033</v>
+        <f>0.9987</f>
+        <v>0.99870000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,14 +493,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <f>0.6</f>
         <v>0.6</v>
       </c>
       <c r="C5" s="2">
         <v>0.6</v>
       </c>
       <c r="D5" s="2">
-        <f>1-(8*10)/(15*720)</f>
-        <v>0.99259259259259258</v>
+        <f>0.9926</f>
+        <v>0.99260000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,14 +509,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.62980000000000003</v>
+        <f>0.5891</f>
+        <v>0.58909999999999996</v>
       </c>
       <c r="C6" s="2">
-        <v>0.62980000000000003</v>
+        <f>0.5891</f>
+        <v>0.58909999999999996</v>
       </c>
       <c r="D6" s="2">
-        <f>1-(8*6)/(15*720)</f>
-        <v>0.99555555555555553</v>
+        <f>0.99</f>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,8 +532,8 @@
         <v>0.3</v>
       </c>
       <c r="D7" s="2">
-        <f>1-(11*6)/(15*720)</f>
-        <v>0.99388888888888893</v>
+        <f>0.9939</f>
+        <v>0.99390000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -570,11 +583,11 @@
       </c>
       <c r="B12">
         <f>CORREL(B2:B9,D2:D9)</f>
-        <v>0.78500309967938009</v>
+        <v>0.78088858565426744</v>
       </c>
       <c r="C12">
         <f>CORREL(C2:C9,D2:D9)</f>
-        <v>0.83533534479619309</v>
+        <v>0.83215971277738399</v>
       </c>
     </row>
   </sheetData>
@@ -584,169 +597,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03462CD3-AD7C-BC46-AC78-8D8CBAC45D73}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1995</v>
       </c>
-      <c r="D2">
-        <f>1-(2*1)/(28*3360000)</f>
-        <v>0.9999999787414966</v>
+      <c r="B2" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.99999822999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1996</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">1-(2*3)/(28*3360000)</f>
-        <v>0.99999993622448979</v>
+      <c r="B3" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.99999468999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>1997</v>
       </c>
-      <c r="D4">
-        <f>1-(8*1)/(28*3360000)</f>
-        <v>0.99999991496598639</v>
+      <c r="B4" s="5">
+        <v>0.81486562351399205</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.72569798858096701</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.99999291000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1998</v>
       </c>
-      <c r="D5">
-        <f>1-(4*1)/(28*3360000)</f>
-        <v>0.9999999574829932</v>
+      <c r="B5" s="5">
+        <v>0.816931885550639</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.816931885550639</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.99999645999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>1999</v>
       </c>
-      <c r="D6">
-        <f>1-(4*1)/(28*3360000)</f>
-        <v>0.9999999574829932</v>
+      <c r="B6" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.78571428671315502</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.99999645999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>2000</v>
       </c>
-      <c r="D7">
-        <f>1-(2*1)/(28*3360000)</f>
-        <v>0.9999999787414966</v>
+      <c r="B7" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.82755617411620797</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.99999822999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>2001</v>
       </c>
+      <c r="B8" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.99999468999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>2002</v>
       </c>
+      <c r="B9" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.82755617411620697</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.99999822999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>2003</v>
       </c>
+      <c r="B10" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.839954588619653</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.99999645999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>2004</v>
       </c>
+      <c r="B11" s="5">
+        <v>0.66145940252019997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.66145940252019997</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.99994331000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>2005</v>
       </c>
+      <c r="B12" s="5">
+        <v>0.83751713038945497</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.83615805239690599</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.99999645999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>2006</v>
       </c>
+      <c r="B13" s="5">
+        <v>0.80485351374507996</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.80485351374507996</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.99997166000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>2007</v>
       </c>
+      <c r="B14" s="5">
+        <v>0.684131683057422</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.684131683057422</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.99992559999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>2008</v>
       </c>
+      <c r="B15" s="5">
+        <v>0.80485351374507996</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.80485351374507996</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.99998405999999995</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>2009</v>
       </c>
+      <c r="B16" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.83059977899095605</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.99999645999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>2010</v>
       </c>
+      <c r="B17" s="5">
+        <v>0.70817351151146901</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.70817351151146901</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.99997873999999998</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>2011</v>
       </c>
+      <c r="B18" s="5">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.99997873999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>2012</v>
       </c>
+      <c r="B19" s="5">
+        <v>0.71428571428571497</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.71428571428571497</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.99999291000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f>8*7*6*5000*2*1</f>
-        <v>3360000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <f>(8*8-8)/2</f>
-        <v>28</v>
-      </c>
+      <c r="B22" s="4">
+        <f>CORREL(B2:B19,D2:D19)</f>
+        <v>0.78757068996392765</v>
+      </c>
+      <c r="C22" s="4">
+        <f>CORREL(C2:C19,D2:D19)</f>
+        <v>0.71903752942017396</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
